--- a/biology/Botanique/Phoradendron/Phoradendron.xlsx
+++ b/biology/Botanique/Phoradendron/Phoradendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Phoradendron regroupe des espèces de gui originaires des régions tempérées chaudes et tropicales d'Amérique. Traditionnellement, le genre était placé dans sa propre famille, les Viscaceae, mais des recherches génétiques récentes réalisées par l'Angiosperm Phylogeny Group montrent que cette famille doit être placée dans la famille des bois de santal, les Santalaceae. L'espèce type est Phoradendron californicum Nutt.
 Ce sont des arbustes hémiparasites semi-ligneux avec des branches de 10 à 80 cm de longueur, qui poussent sur d'autres arbres. Le feuillage est à ramification dichotomique, avec des feuilles opposées, assez grandes, de 2 à 5 centimètres de longueur, vertes et capables de photosynthèse chez certaines espèces (par exemple, P. leucarpum), mais minime chez d'autres (par exemple P . californicum). La plante puise ses ressources minérales son eau et certains de ses composés énergétiques de l'arbre hôte. Les différentes espèces de Phoradendron ont tendance à utiliser différentes espèces hôtes, même si la plupart des espèces sont capables d'utiliser plusieurs hôtes différents.
@@ -514,11 +526,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (04 février 2022)[2] :
-Selon World Flora Online (WFO)       (04 février 2022)[3] :
-Selon NCBI  (10 Aug 2010)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (04 février 2022) :
+Selon World Flora Online (WFO)       (04 février 2022) :
+Selon NCBI  (10 Aug 2010) :
 Phoradendron bolleanum
 Phoradendron brachystachyum
 Phoradendron brevifolium
@@ -549,7 +563,7 @@
 Phoradendron velutinum
 Phoradendron vernicosum
 Phoradendron villosum
-Selon ITIS      (10 Aug 2010)[5] :
+Selon ITIS      (10 Aug 2010) :
 Phoradendron anceps (Spreng.) G. Maza
 Phoradendron barahonae Urban &amp; Trel.
 Phoradendron bolleanum (Seem.) Eichl.
